--- a/2024/Score/Calculator/Excel.xlsx
+++ b/2024/Score/Calculator/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Projects\GitHub\IngeniumTeam\ingeniumteam.github.io\2023\Score\Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\IngeniumTeam\ingeniumteam.github.io\2024\Score\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1C450-35FD-465C-B62B-83DBD955E3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03014B0B-279F-4E0D-93CF-6D8B76CB2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,32 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
-  <si>
-    <t>Cakes</t>
-  </si>
-  <si>
-    <t>Layers</t>
-  </si>
-  <si>
-    <t>Cherries</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Basket</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Funny Action</t>
-  </si>
-  <si>
     <t>Estimation</t>
   </si>
   <si>
@@ -66,37 +45,53 @@
     <t>Team 1</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
     <t>Team 2</t>
   </si>
   <si>
-    <t>Cherry On the Cake</t>
-  </si>
-  <si>
-    <t>Legendary recipe</t>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Dans un pot</t>
+  </si>
+  <si>
+    <t>Dans une jardinière</t>
+  </si>
+  <si>
+    <t>PAMIs</t>
+  </si>
+  <si>
+    <t>Présente dans une zone</t>
+  </si>
+  <si>
+    <t>En contact</t>
+  </si>
+  <si>
+    <t>Panneaux solaires</t>
+  </si>
+  <si>
+    <t>Du bon côté</t>
+  </si>
+  <si>
+    <t>Farming Mars</t>
+  </si>
+  <si>
+    <t>Présent dans une zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,24 +105,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,58 +170,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,16 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63BD49B-FA12-7840-BB21-D57E7071AF2B}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
@@ -583,435 +563,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="F3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" s="5">
-        <v>6</v>
-      </c>
-      <c r="I6" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
-        <f>C6+C7*3+C5*4</f>
-        <v>12</v>
+        <f>C6*3+C7+C5</f>
+        <v>60</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="6">
-        <f>H6+H7*3+H5*4</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="11"/>
+        <f>H6*3+H7+H5</f>
+        <v>60</v>
+      </c>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <f>C10*5+C11*5</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f>H10*5+H11*5</f>
+        <v>30</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <f>C14*5</f>
+        <v>25</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <f>H14*5</f>
+        <v>25</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="F16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="C17" s="5">
+        <v>115</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6">
-        <f>C10*5+C11+IF(AND(C12&gt;0,C12=C11 ),5,0)</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="6">
-        <f>H10*5+H11+IF(AND(H12&gt;0,H12=H11 ),5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6">
-        <f>C15*5</f>
-        <v>5</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6">
-        <f>H15*5</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="5">
+        <v>115</v>
+      </c>
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5">
-        <v>34</v>
+        <f>C21</f>
+        <v>115</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" s="5">
-        <v>6</v>
-      </c>
-      <c r="I18" s="10"/>
+        <f>H21</f>
+        <v>115</v>
+      </c>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5">
-        <f>C22</f>
-        <v>28</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="5">
-        <f>H22</f>
-        <v>6</v>
-      </c>
-      <c r="I19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <f>IF(_xlfn.CEILING.MATH(20-IF(C17&gt;C18, C17-C18, C18-C17))&lt;0,0,_xlfn.CEILING.MATH(20-IF(C17&gt;=C18, C17-C18,C18-C17)))</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6">
+        <f>IF(_xlfn.CEILING.MATH(20-IF(H17&gt;H18, H17-H18, H18-H17))&lt;0,0,_xlfn.CEILING.MATH(20-IF(H17&gt;=H18, H17-H18,H18-H17)))</f>
+        <v>20</v>
+      </c>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6">
-        <f>IF(_xlfn.CEILING.MATH(20-IF(C18&gt;C19, C18-C19, C19-C18))&lt;0,0,_xlfn.CEILING.MATH(20-IF(C18&gt;=C19, C18-C19,C19-C18)))</f>
-        <v>14</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="6">
-        <f>IF(_xlfn.CEILING.MATH(20-IF(H18&gt;H19, H18-H19, H19-H18))&lt;0,0,_xlfn.CEILING.MATH(20-IF(H18&gt;=H19, H18-H19,#REF!- H18)))</f>
-        <v>20</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="F21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="A20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <f>SUM(C8,C12,C15)</f>
+        <v>115</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <f>SUM(H8,H12,H15)</f>
+        <v>115</v>
+      </c>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6">
-        <f>SUM(C8,C13,C16)</f>
-        <v>28</v>
+        <f>C21+C19+1</f>
+        <v>136</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
-        <f>SUM(H8,H13,H16)</f>
-        <v>6</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6">
-        <f>C22+C20+1</f>
-        <v>43</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="6">
-        <f>H22+H20+1</f>
-        <v>27</v>
-      </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
+        <f>H21+H19+1</f>
+        <v>136</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2024/Score/Calculator/Excel.xlsx
+++ b/2024/Score/Calculator/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\IngeniumTeam\ingeniumteam.github.io\2024\Score\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03014B0B-279F-4E0D-93CF-6D8B76CB2DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38610098-6888-42A4-A71B-DEF627F32F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Team 2</t>
   </si>
   <si>
-    <t>Plants</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
     <t>Dans un pot</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Présent dans une zone</t>
+  </si>
+  <si>
+    <t>Plante</t>
+  </si>
+  <si>
+    <t>Plantes</t>
   </si>
 </sst>
 </file>
@@ -194,6 +194,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,21 +222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +545,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,112 +563,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="F5" s="16"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
         <v>12</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5">
-        <v>12</v>
-      </c>
-      <c r="I6" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5">
         <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>12</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="5">
         <v>12</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -677,68 +677,68 @@
       </c>
       <c r="C8" s="6">
         <f>C6*3+C7+C5</f>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="6">
         <f>H6*3+H7+H5</f>
-        <v>60</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>3</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>3</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -750,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="17"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4" t="s">
         <v>0</v>
       </c>
@@ -758,39 +758,39 @@
         <f>H10*5+H11*5</f>
         <v>30</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -799,32 +799,32 @@
       </c>
       <c r="C15" s="6">
         <f>C14*5</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <f>H14*5</f>
-        <v>25</v>
-      </c>
-      <c r="I15" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="15" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="F16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -832,17 +832,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="5">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="5">
-        <v>115</v>
-      </c>
-      <c r="I17" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -851,18 +851,18 @@
       </c>
       <c r="C18" s="5">
         <f>C21</f>
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="5">
         <f>H21</f>
-        <v>115</v>
-      </c>
-      <c r="I18" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -874,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="F19" s="17"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,21 +882,21 @@
         <f>IF(_xlfn.CEILING.MATH(20-IF(H17&gt;H18, H17-H18, H18-H17))&lt;0,0,_xlfn.CEILING.MATH(20-IF(H17&gt;=H18, H17-H18,H18-H17)))</f>
         <v>20</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="F20" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="A20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="F20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -905,19 +905,19 @@
       </c>
       <c r="C21" s="6">
         <f>SUM(C8,C12,C15)</f>
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(H8,H12,H15)</f>
-        <v>115</v>
-      </c>
-      <c r="I21" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -926,19 +926,19 @@
       </c>
       <c r="C22" s="6">
         <f>C21+C19+1</f>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6">
         <f>H21+H19+1</f>
-        <v>136</v>
-      </c>
-      <c r="I22" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -946,10 +946,10 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
